--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\source\repos\Proyecto\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9AB8CE-72A9-4DC7-A271-5E036B01532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E3CBC-87F7-4BBA-94CA-D8DF6BE3AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -33,23 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="143">
   <si>
     <t>Tablas</t>
   </si>
@@ -340,9 +329,6 @@
   </si>
   <si>
     <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>not null, uniue</t>
   </si>
   <si>
     <t>temperatura</t>
@@ -487,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,7 +1228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1544,7 +1530,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
@@ -1553,8 +1539,8 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="18.75">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1566,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1618,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1644,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1656,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1668,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1680,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1706,7 +1692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1732,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="36"/>
     </row>
   </sheetData>
@@ -1746,11 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6D8914-D75C-4FC6-9E32-1E8367F3B299}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -1758,8 +1744,8 @@
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +1755,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1779,7 +1765,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1775,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -1797,7 +1783,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -1811,7 +1797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1809,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
@@ -1835,7 +1821,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
@@ -1843,41 +1829,41 @@
         <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1">
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>66</v>
       </c>
@@ -1885,13 +1871,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>67</v>
       </c>
@@ -1899,7 +1885,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1918,7 +1904,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
@@ -1926,8 +1912,8 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -1937,7 +1923,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +1933,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -1957,7 +1943,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -1965,7 +1951,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1977,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +1989,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
@@ -2015,25 +2001,25 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>66</v>
       </c>
@@ -2041,13 +2027,13 @@
       <c r="D13" s="34"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
@@ -2055,7 +2041,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2074,7 +2060,7 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
@@ -2082,8 +2068,8 @@
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2079,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -2103,7 +2089,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -2111,7 +2097,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" customHeight="1">
+    <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2107,7 @@
       <c r="D6" s="61"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2135,7 +2121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
@@ -2145,21 +2131,21 @@
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>64</v>
@@ -2169,9 +2155,9 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>64</v>
@@ -2181,9 +2167,9 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>74</v>
@@ -2191,9 +2177,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>81</v>
@@ -2203,19 +2189,19 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2223,11 +2209,11 @@
         <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2235,11 +2221,11 @@
         <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2251,13 +2237,13 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
@@ -2265,29 +2251,29 @@
       <c r="D19" s="23"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>67</v>
       </c>
@@ -2295,31 +2281,31 @@
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1">
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2341,7 +2327,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
@@ -2349,18 +2335,18 @@
     <col min="5" max="5" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -2370,7 +2356,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2366,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -2390,7 +2376,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2404,7 +2390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2412,11 +2398,11 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2424,25 +2410,25 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
@@ -2452,7 +2438,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
@@ -2460,13 +2446,13 @@
         <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -2474,23 +2460,23 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2498,17 +2484,17 @@
         <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>66</v>
       </c>
@@ -2516,31 +2502,31 @@
       <c r="D17" s="23"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
@@ -2548,39 +2534,39 @@
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1">
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2599,14 +2585,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15.75">
+    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>44</v>
       </c>
@@ -2616,17 +2602,17 @@
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>46</v>
       </c>
@@ -2634,7 +2620,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>47</v>
       </c>
@@ -2644,7 +2630,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="51" t="s">
         <v>35</v>
       </c>
@@ -2666,11 +2652,11 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
         <v>21</v>
       </c>
@@ -2678,11 +2664,11 @@
         <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="46"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>32</v>
       </c>
@@ -2690,17 +2676,17 @@
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="52"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="53"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="43" t="s">
         <v>66</v>
       </c>
@@ -2708,21 +2694,21 @@
       <c r="D12" s="23"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="46"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="51"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="46"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
         <v>67</v>
       </c>
@@ -2730,23 +2716,23 @@
       <c r="D15" s="1"/>
       <c r="E15" s="46"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -2765,7 +2751,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
@@ -2773,8 +2759,8 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -2784,7 +2770,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -2794,7 +2780,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -2804,7 +2790,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -2812,7 +2798,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2826,7 +2812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
@@ -2838,7 +2824,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2836,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
@@ -2862,7 +2848,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
@@ -2874,7 +2860,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
@@ -2886,7 +2872,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
@@ -2898,13 +2884,13 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
         <v>66</v>
       </c>
@@ -2912,19 +2898,19 @@
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>67</v>
       </c>
@@ -2932,7 +2918,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1">
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2951,7 +2937,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
@@ -2959,8 +2945,8 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -2970,7 +2956,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -2980,7 +2966,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -2990,7 +2976,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3000,7 +2986,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3014,7 +3000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -3026,7 +3012,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
@@ -3038,13 +3024,13 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1">
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>66</v>
       </c>
@@ -3052,13 +3038,13 @@
       <c r="D11" s="23"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>67</v>
       </c>
@@ -3066,7 +3052,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3081,11 +3067,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7B50E-5E05-436D-A3F2-B7A7E9168709}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
@@ -3093,8 +3079,8 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -3104,7 +3090,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3114,7 +3100,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3124,7 +3110,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3134,7 +3120,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3148,7 +3134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3146,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3158,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
@@ -3184,7 +3170,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
@@ -3196,13 +3182,13 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>66</v>
       </c>
@@ -3210,13 +3196,13 @@
       <c r="D13" s="23"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
@@ -3224,7 +3210,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3243,15 +3229,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -3261,7 +3247,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3271,7 +3257,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3281,7 +3267,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>47</v>
       </c>
@@ -3291,7 +3277,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
@@ -3305,7 +3291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3303,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3329,7 +3315,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
@@ -3341,7 +3327,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
@@ -3353,13 +3339,13 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>66</v>
       </c>
@@ -3367,13 +3353,13 @@
       <c r="D13" s="23"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
@@ -3381,7 +3367,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3400,14 +3386,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="23" customWidth="1"/>
     <col min="4" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -3417,7 +3403,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3427,7 +3413,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3435,7 +3421,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +3429,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3457,7 +3443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -3469,7 +3455,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3481,7 +3467,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3493,7 +3479,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3505,7 +3491,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
@@ -3517,13 +3503,13 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1">
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>66</v>
       </c>
@@ -3531,13 +3517,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>67</v>
       </c>
@@ -3545,7 +3531,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3564,7 +3550,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
@@ -3572,8 +3558,8 @@
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>44</v>
       </c>
@@ -3583,7 +3569,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3593,7 +3579,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3601,7 +3587,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3611,7 +3597,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +3623,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3649,7 +3635,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -3661,13 +3647,13 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1">
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>66</v>
       </c>
@@ -3675,13 +3661,13 @@
       <c r="D12" s="23"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>67</v>
       </c>
@@ -3689,7 +3675,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3697,13 +3683,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="36"/>
     </row>
   </sheetData>
@@ -3720,15 +3706,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
@@ -3738,7 +3724,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3748,7 +3734,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3758,7 +3744,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3766,7 +3752,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3780,7 +3766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
@@ -3792,7 +3778,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3804,7 +3790,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
@@ -3816,7 +3802,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
@@ -3828,7 +3814,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>87</v>
       </c>
@@ -3840,7 +3826,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>88</v>
       </c>
@@ -3852,13 +3838,13 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>66</v>
       </c>
@@ -3866,13 +3852,13 @@
       <c r="D15" s="23"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>67</v>
       </c>
@@ -3880,7 +3866,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3899,7 +3885,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
@@ -3907,8 +3893,8 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>44</v>
       </c>
@@ -3918,7 +3904,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3928,7 +3914,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>46</v>
       </c>
@@ -3938,7 +3924,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -3946,7 +3932,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
@@ -3960,7 +3946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
@@ -3972,7 +3958,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3984,7 +3970,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
@@ -3996,7 +3982,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
@@ -4008,7 +3994,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>91</v>
       </c>
@@ -4020,7 +4006,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>88</v>
       </c>
@@ -4032,13 +4018,13 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>66</v>
       </c>
@@ -4046,13 +4032,13 @@
       <c r="D15" s="23"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>67</v>
       </c>
@@ -4060,7 +4046,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9AB8CE-72A9-4DC7-A271-5E036B01532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2CB9A4-1661-4CBD-8407-899F20A97F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="15" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <sheet name="Productos" sheetId="9" r:id="rId11"/>
     <sheet name="Pedidos" sheetId="12" r:id="rId12"/>
     <sheet name="Producen" sheetId="14" r:id="rId13"/>
-    <sheet name="Pedidos_Productos" sheetId="13" r:id="rId14"/>
+    <sheet name="Producen_Pesti" sheetId="17" r:id="rId14"/>
+    <sheet name="Producen_Ferti" sheetId="18" r:id="rId15"/>
+    <sheet name="Pedidos_Productos" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>Tablas</t>
   </si>
@@ -165,255 +167,294 @@
     <t>Producen</t>
   </si>
   <si>
-    <t>idGranja, idProducto</t>
+    <t>idGranja, idProducto, fchProduccion</t>
+  </si>
+  <si>
+    <t>idGranja --&gt; Granjas, idProducto --&gt; Productos, idDeposito --&gt; Depositos</t>
+  </si>
+  <si>
+    <t>Pedidos_Producen</t>
+  </si>
+  <si>
+    <t>idPedido, idGranja, idProducto, fchProduccion</t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>Producen_Pesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPesticida, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Producen, idProducto --&gt; Producen,  fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>Producen_Ferti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idFertilizante, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idFertilizante--&gt; Fertilizantes, idGranja --&gt; Producen, idProducto --&gt; Producen,  fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>Tabla:</t>
+  </si>
+  <si>
+    <t>Clave primaria:</t>
+  </si>
+  <si>
+    <t>Claves alterna:</t>
+  </si>
+  <si>
+    <t>Claves foráneas</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Tipos de datos</t>
+  </si>
+  <si>
+    <t>Restricciones</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+  </si>
+  <si>
+    <t>unique, not null</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>varchar(9)</t>
+  </si>
+  <si>
+    <t>fchNacimiento</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fchNacimiento &lt; Today,not null</t>
+  </si>
+  <si>
+    <t>Restricciones de tabla:</t>
+  </si>
+  <si>
+    <t>Índices:</t>
+  </si>
+  <si>
+    <t>primary key, idCamionero --&gt; Personas</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>not null, check(disponible in ('Disponible','No disponible'))</t>
+  </si>
+  <si>
+    <t>fchManejo</t>
+  </si>
+  <si>
+    <t>fchManejo &lt; Today, not null</t>
+  </si>
+  <si>
+    <t>primary key, idAdmin --&gt; Personas</t>
+  </si>
+  <si>
+    <t>not null, unique</t>
+  </si>
+  <si>
+    <t>contrasena</t>
+  </si>
+  <si>
+    <t>tipoDeAdmin</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>not null, check (tipoDeAdmin in ('Administrador global','Administrador de productos','Administrador de pedidos','Administrador de flota'))</t>
+  </si>
+  <si>
+    <t>primary key, idCliente --&gt; Personas</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>carga</t>
+  </si>
+  <si>
+    <t>numeric(10,2)</t>
+  </si>
+  <si>
+    <t>not null, not null, check(disponible in ('Disponible','No disponible'))</t>
+  </si>
+  <si>
+    <t>idCliente_Granjas (idUsuarioCliente)</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>toxicidad</t>
+  </si>
+  <si>
+    <t>resistencia</t>
+  </si>
+  <si>
+    <t>impacto</t>
+  </si>
+  <si>
+    <t>origen</t>
+  </si>
+  <si>
+    <t>compQuimica</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>numeric(2)</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>capacidad</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>not null, uniue</t>
+  </si>
+  <si>
+    <t>temperatura</t>
+  </si>
+  <si>
+    <t>numeric(2,0)</t>
+  </si>
+  <si>
+    <t>condiciones</t>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+  </si>
+  <si>
+    <t>tipoVenta</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>fechaEsperado</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>fechaEntregado</t>
+  </si>
+  <si>
+    <t>retraso</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>informacionEntrega</t>
+  </si>
+  <si>
+    <t>idCamion --&gt; Camiones</t>
+  </si>
+  <si>
+    <t>idCamionero --&gt; Camioneros</t>
+  </si>
+  <si>
+    <t>fechaEsperado &gt;= a la del dia</t>
+  </si>
+  <si>
+    <t>fechaEntregado &gt;= a la de fechaEsperado</t>
+  </si>
+  <si>
+    <t>idCliente_Pedidos (idCliente)</t>
+  </si>
+  <si>
+    <t>idCamion_Pedidos (idCamion)</t>
+  </si>
+  <si>
+    <t>idCamionero_Pedidos (idCamionero)</t>
+  </si>
+  <si>
+    <t>Produce</t>
   </si>
   <si>
     <t>fchProduccion</t>
   </si>
   <si>
-    <t>idGranja --&gt; Granjas, idProducto --&gt; Productos, idPesticida --&gt; Pesticidas, idFertilizante --&gt; Fertilizantes, idDeposito --&gt; Depositos</t>
-  </si>
-  <si>
-    <t>Pedidos_Productos</t>
-  </si>
-  <si>
-    <t>idPedido, idGranja, idProducto</t>
-  </si>
-  <si>
-    <t>idPedido --&gt; Pedidos, idGranja --&gt; Producen, idProducto --&gt; Producen</t>
-  </si>
-  <si>
-    <t>Tabla:</t>
-  </si>
-  <si>
-    <t>Clave primaria:</t>
-  </si>
-  <si>
-    <t>Claves alterna:</t>
-  </si>
-  <si>
-    <t>Claves foráneas</t>
-  </si>
-  <si>
-    <t>Campos</t>
-  </si>
-  <si>
-    <t>Tipos de datos</t>
-  </si>
-  <si>
-    <t>Restricciones</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>idUsuario</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>apellido</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-  </si>
-  <si>
-    <t>unique, not null</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>varchar(9)</t>
-  </si>
-  <si>
-    <t>fchNacimiento</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>fchNacimiento &lt; Today,not null</t>
-  </si>
-  <si>
-    <t>Restricciones de tabla:</t>
-  </si>
-  <si>
-    <t>Índices:</t>
-  </si>
-  <si>
-    <t>primary key, idCamionero --&gt; Personas</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>primary key, idAdmin --&gt; Personas</t>
-  </si>
-  <si>
-    <t>not null, unique</t>
-  </si>
-  <si>
-    <t>contrasena</t>
-  </si>
-  <si>
-    <t>tipoDeAdmin</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>primary key, idCliente --&gt; Personas</t>
-  </si>
-  <si>
-    <t>contraseña</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>carga</t>
-  </si>
-  <si>
-    <t>numeric(10,2)</t>
-  </si>
-  <si>
-    <t>disponible</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>idCliente_Granjas (idUsuarioCliente)</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>toxicidad</t>
-  </si>
-  <si>
-    <t>resistencia</t>
-  </si>
-  <si>
-    <t>impacto</t>
-  </si>
-  <si>
-    <t>origen</t>
-  </si>
-  <si>
-    <t>compQuimica</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>numeric(2)</t>
-  </si>
-  <si>
-    <t>ubicación</t>
-  </si>
-  <si>
-    <t>capacidad</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>not null, uniue</t>
-  </si>
-  <si>
-    <t>temperatura</t>
-  </si>
-  <si>
-    <t>numeric(2,0)</t>
-  </si>
-  <si>
-    <t>condiciones</t>
-  </si>
-  <si>
-    <t>varchar(80)</t>
-  </si>
-  <si>
-    <t>tipoVenta</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>fechaEsperado</t>
-  </si>
-  <si>
-    <t>fechaEntregado</t>
-  </si>
-  <si>
-    <t>retraso</t>
-  </si>
-  <si>
-    <t>costo</t>
-  </si>
-  <si>
-    <t>informacionEntrega</t>
-  </si>
-  <si>
-    <t>idCamion --&gt; Camiones</t>
-  </si>
-  <si>
-    <t>idCamionero --&gt; Camioneros</t>
-  </si>
-  <si>
-    <t>fechaEsperado &gt;= a la del dia</t>
-  </si>
-  <si>
-    <t>fechaEntregado &gt;= a la de fechaEsperado</t>
-  </si>
-  <si>
-    <t>idCliente_Pedidos (idCliente)</t>
-  </si>
-  <si>
-    <t>idCamion_Pedidos (idCamion)</t>
-  </si>
-  <si>
-    <t>idCamionero_Pedidos (idCamionero)</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
     <t>idGranja --&gt; Granjas</t>
   </si>
   <si>
     <t>idProducto --&gt; Productos</t>
   </si>
   <si>
+    <t>fchProduccion&lt;= a la del dia, not null</t>
+  </si>
+  <si>
+    <t>por defecto la del dia</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
@@ -423,64 +464,94 @@
     <t>precio</t>
   </si>
   <si>
-    <t xml:space="preserve"> not null</t>
-  </si>
-  <si>
-    <t>por defecto la del dia</t>
-  </si>
-  <si>
-    <t>idPesticida --&gt; Pesticidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idFertilizante </t>
-  </si>
-  <si>
-    <t>idFertilizante --&gt; Fertilizantes</t>
-  </si>
-  <si>
-    <t>idDeposito --&gt; Depositos</t>
-  </si>
-  <si>
-    <t>primary key (idGranja, idProducto)</t>
-  </si>
-  <si>
-    <t>fchProduccion &lt;= a la del dia</t>
-  </si>
-  <si>
-    <t>Unique(idGranja, idProducto, fchProduccion)</t>
+    <t>idDeposito --&gt; Depositos, not null</t>
+  </si>
+  <si>
+    <t>primary key (idGranja, idProducto, fchProduccion)</t>
   </si>
   <si>
     <t>idProducto_Producen (idProducto)</t>
   </si>
   <si>
-    <t>idPesticida_Producen (idPesticida)</t>
-  </si>
-  <si>
-    <t>idFetilizante_Producen (idFertilizante)</t>
-  </si>
-  <si>
     <t>idDeposito_Producen (idDeposito)</t>
   </si>
   <si>
-    <t>idPedido, idProducto</t>
+    <t>fchProduccion_Producen(fchProduccion)</t>
+  </si>
+  <si>
+    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>idPesticida--&gt; Pesticidas</t>
+  </si>
+  <si>
+    <t>idGranja --&gt; Producen</t>
+  </si>
+  <si>
+    <t>idProducto--&gt; Producen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fchProduccion </t>
+  </si>
+  <si>
+    <t>fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>primary key (idPesticida, idGranja, idProducto, fchProduccion )</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Pesti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Pesti (idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
+  </si>
+  <si>
+    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
+  </si>
+  <si>
+    <t>idFertilizante--&gt; Fertilizantes</t>
+  </si>
+  <si>
+    <t>fchProduccion --&gt;Producen</t>
+  </si>
+  <si>
+    <t>primary key (idFertilizante, idGranja, idProducto)</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Ferti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Ferti(idProducto)</t>
+  </si>
+  <si>
+    <t>Producen_Pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
   </si>
   <si>
     <t>idPedido --&gt; Pedidos</t>
   </si>
   <si>
-    <t>idGranja --&gt; Producen</t>
-  </si>
-  <si>
     <t>idProducto --&gt; Producen</t>
   </si>
   <si>
-    <t>primary key (idPedido, idGranja, idProducto)</t>
-  </si>
-  <si>
-    <t>idGranja_Pedidos_Productos (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Pedidos_Productos (idProducto)</t>
+    <t>primary key (idPedido, idGranja, idProducto, fchProduccion )</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Pedidos (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Pedidos(idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion _Producen_Pedidos(fchProduccion)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1131,22 +1202,571 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1218,10 +1838,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1538,202 +2285,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD5525-7AA9-4C18-88C7-622EA76AA07E}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B3:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="114.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="18.75">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="53" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6" t="s">
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="52" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="36"/>
+      <c r="C17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19" s="33"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" s="79"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="E27" s="79"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="79"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" s="79"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1760,150 +2543,150 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
-        <v>94</v>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>93</v>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>98</v>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>100</v>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
+      <c r="B16" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,138 +2711,138 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18" t="s">
-        <v>67</v>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2084,246 +2867,246 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
-        <v>104</v>
+      <c r="B9" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>106</v>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>107</v>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>108</v>
+      <c r="B12" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>109</v>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>110</v>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
-        <v>113</v>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="5" t="s">
-        <v>114</v>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="5"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="18" t="s">
-        <v>67</v>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="5" t="s">
-        <v>115</v>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="5" t="s">
-        <v>116</v>
+      <c r="B25" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="5" t="s">
-        <v>117</v>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2335,256 +3118,244 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC034D-68F2-499A-88B5-CB927008B55C}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>121</v>
+      <c r="B10" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>123</v>
+      <c r="B11" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>39</v>
+      <c r="B12" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="5" t="s">
-        <v>131</v>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="85"/>
+      <c r="C16" s="84"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="72"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="5" t="s">
-        <v>133</v>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="5" t="s">
-        <v>134</v>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="5" t="s">
-        <v>135</v>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="5" t="s">
-        <v>136</v>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,167 +3363,580 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A133C493-A52A-44CB-8ED4-39594245B901}">
+  <dimension ref="B3:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15.75">
+      <c r="B3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="95"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241BC919-EDA9-4F8D-A698-DE16FDC6FD6F}">
+  <dimension ref="B4:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="15.75">
+      <c r="B4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="48"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="53"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875A4EF-EF14-43B7-BA29-7E9B2D9A29F9}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="15.75">
-      <c r="B3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>51</v>
+      <c r="B7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="46"/>
+        <v>161</v>
+      </c>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="46"/>
+        <v>144</v>
+      </c>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="52"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="53"/>
+      <c r="B11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="51"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2762,7 +3946,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2775,168 +3959,168 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
-        <v>52</v>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>57</v>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>58</v>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>61</v>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>63</v>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="5"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="18" t="s">
-        <v>67</v>
+      <c r="B18" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,132 +4129,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D64545-1B5D-4A6B-8BEC-02D16C26014C}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="2:5" ht="15.75">
+      <c r="B3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="B13" s="48"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3081,154 +4282,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7B50E-5E05-436D-A3F2-B7A7E9168709}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="4" max="4" width="121" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18" t="s">
-        <v>67</v>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3240,7 +4441,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3252,140 +4453,140 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B12" s="16"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18" t="s">
-        <v>67</v>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3397,159 +4598,160 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
-        <v>78</v>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>79</v>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>80</v>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>82</v>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
+      <c r="B16" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3561,7 +4763,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3574,137 +4776,143 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="5"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="18" t="s">
-        <v>67</v>
+      <c r="B14" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
-        <v>84</v>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="36"/>
+      <c r="C20" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3729,162 +4937,162 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="18" t="s">
-        <v>67</v>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3909,162 +5117,162 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>51</v>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="5"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="18" t="s">
-        <v>67</v>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2CB9A4-1661-4CBD-8407-899F20A97F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D880FD86-2C25-4D69-8072-6D48B85A2006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="15" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <t>temperatura</t>
   </si>
   <si>
-    <t>numeric(2,0)</t>
+    <t>numeric(3,0)</t>
   </si>
   <si>
     <t>condiciones</t>
@@ -1764,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1859,6 +1859,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1874,19 +1886,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1914,16 +1913,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1935,23 +1940,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2285,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD5525-7AA9-4C18-88C7-622EA76AA07E}">
-  <dimension ref="B3:E30"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2301,16 +2300,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.75">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="76" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2502,21 +2501,6 @@
     </row>
     <row r="19" spans="2:5">
       <c r="D19" s="33"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" s="79"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="E27" s="79"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="79"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2530,7 +2514,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2854,7 +2838,7 @@
   <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2898,10 +2882,10 @@
       <c r="B6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5">
@@ -3121,7 +3105,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3274,13 +3258,13 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="85"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="78"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="72"/>
-      <c r="B17" s="83"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
@@ -3367,7 +3351,7 @@
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3382,39 +3366,39 @@
       <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
@@ -3491,62 +3475,61 @@
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="95"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
@@ -3557,6 +3540,7 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3567,7 +3551,7 @@
   <dimension ref="B4:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3582,39 +3566,39 @@
       <c r="B4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="46" t="s">
@@ -3757,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875A4EF-EF14-43B7-BA29-7E9B2D9A29F9}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3773,39 +3757,39 @@
       <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
@@ -3870,71 +3854,71 @@
       <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,7 +4116,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4283,7 +4267,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4440,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16376D61-587B-4D5B-ACB3-E171F885DF9E}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4523,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -4535,7 +4519,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -4598,7 +4582,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4763,7 +4747,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D880FD86-2C25-4D69-8072-6D48B85A2006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEF3389-9F6D-4FD2-82D2-2D82A1FA963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
   <si>
     <t>Tablas</t>
   </si>
@@ -290,7 +290,7 @@
     <t>fchManejo</t>
   </si>
   <si>
-    <t>fchManejo &lt; Today, not null</t>
+    <t>fchManejo &gt; Today, not null</t>
   </si>
   <si>
     <t>primary key, idAdmin --&gt; Personas</t>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>tipoVenta</t>
-  </si>
-  <si>
-    <t>char</t>
   </si>
   <si>
     <t>estado</t>
@@ -2287,7 +2284,7 @@
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2514,7 +2511,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2681,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA27CEC0-1F99-4A0E-9C6E-B93893993F18}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2787,7 +2784,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2914,7 +2911,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>76</v>
@@ -2926,10 +2923,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2938,10 +2935,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2950,7 +2947,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>84</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>92</v>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>111</v>
@@ -2990,7 +2987,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3002,7 +2999,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -3034,7 +3031,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3042,7 +3039,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3064,7 +3061,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3072,7 +3069,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3122,7 +3119,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
@@ -3142,7 +3139,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -3179,7 +3176,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3191,30 +3188,30 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>92</v>
@@ -3241,7 +3238,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3279,7 +3276,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3395,7 +3392,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87"/>
@@ -3422,7 +3419,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3434,7 +3431,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3446,25 +3443,25 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>106</v>
@@ -3484,7 +3481,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="104"/>
       <c r="D14" s="104"/>
@@ -3506,7 +3503,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
@@ -3514,7 +3511,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
@@ -3522,7 +3519,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="95"/>
       <c r="D19" s="95"/>
@@ -3595,7 +3592,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87"/>
@@ -3622,7 +3619,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3634,7 +3631,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="43"/>
     </row>
@@ -3646,25 +3643,25 @@
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>106</v>
@@ -3684,7 +3681,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3706,7 +3703,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3714,7 +3711,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3758,7 +3755,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="84"/>
@@ -3768,7 +3765,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="93"/>
@@ -3813,7 +3810,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3825,7 +3822,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3837,19 +3834,19 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -3863,7 +3860,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="104"/>
       <c r="D13" s="104"/>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
@@ -4116,7 +4113,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4424,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16376D61-587B-4D5B-ACB3-E171F885DF9E}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5088,7 +5085,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5169,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -5181,7 +5178,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEF3389-9F6D-4FD2-82D2-2D82A1FA963B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F3F790-A538-4116-B563-3B04417B1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="Depositos" sheetId="16" r:id="rId10"/>
     <sheet name="Productos" sheetId="9" r:id="rId11"/>
     <sheet name="Pedidos" sheetId="12" r:id="rId12"/>
-    <sheet name="Producen" sheetId="14" r:id="rId13"/>
-    <sheet name="Producen_Pesti" sheetId="17" r:id="rId14"/>
-    <sheet name="Producen_Ferti" sheetId="18" r:id="rId15"/>
-    <sheet name="Pedidos_Productos" sheetId="13" r:id="rId16"/>
+    <sheet name="Lotes" sheetId="14" r:id="rId13"/>
+    <sheet name="Lotes_Pestis" sheetId="17" r:id="rId14"/>
+    <sheet name="Lotes_Fertis" sheetId="18" r:id="rId15"/>
+    <sheet name="Lotes_Pedidos" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="170">
   <si>
     <t>Tablas</t>
   </si>
@@ -128,238 +128,247 @@
     <t>Pesticidas</t>
   </si>
   <si>
+    <t>idPesti</t>
+  </si>
+  <si>
+    <t>Fertilizantes</t>
+  </si>
+  <si>
+    <t>idFertil</t>
+  </si>
+  <si>
+    <t>Depositos</t>
+  </si>
+  <si>
+    <t>idDeposito</t>
+  </si>
+  <si>
+    <t>ubicacion</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>idProducto</t>
+  </si>
+  <si>
+    <t>nomnbre</t>
+  </si>
+  <si>
+    <t>Pedidos</t>
+  </si>
+  <si>
+    <t>idPedido</t>
+  </si>
+  <si>
+    <t>idCamion --&gt; Camiones, idCamionero --&gt; Camioneros, idCliente --&gt; Clientes</t>
+  </si>
+  <si>
+    <t>Lotes</t>
+  </si>
+  <si>
+    <t>idGranja, idProducto, fchProduccion</t>
+  </si>
+  <si>
+    <t>idGranja --&gt; Granjas, idProducto --&gt; Productos, idDeposito --&gt; Depositos</t>
+  </si>
+  <si>
+    <t>Lotes_Pedidos</t>
+  </si>
+  <si>
+    <t>idPedido, idGranja, idProducto, fchProduccion</t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>Lotes_Pestis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPesticida, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idPesticida --&gt; Pesticidas,idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>Lotes_Fertis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idFertilizante, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idFertilizante--&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>Tabla:</t>
+  </si>
+  <si>
+    <t>Clave primaria:</t>
+  </si>
+  <si>
+    <t>Claves alterna:</t>
+  </si>
+  <si>
+    <t>Claves foráneas</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Tipos de datos</t>
+  </si>
+  <si>
+    <t>Restricciones</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+  </si>
+  <si>
+    <t>unique, not null</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>varchar(9)</t>
+  </si>
+  <si>
+    <t>fchNacimiento</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fchNacimiento &lt; Today,not null</t>
+  </si>
+  <si>
+    <t>Restricciones de tabla:</t>
+  </si>
+  <si>
+    <t>Índices:</t>
+  </si>
+  <si>
+    <t>primary key, idCamionero --&gt; Personas</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>not null, check(disponible in ('Disponible','No disponible'))</t>
+  </si>
+  <si>
+    <t>fchManejo</t>
+  </si>
+  <si>
+    <t>fchManejo &gt; Today, not null</t>
+  </si>
+  <si>
+    <t>primary key, idAdmin --&gt; Personas</t>
+  </si>
+  <si>
+    <t>not null, unique</t>
+  </si>
+  <si>
+    <t>contrasena</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>not null, check(estado in ('Habilitado', 'No Habilitado'))</t>
+  </si>
+  <si>
+    <t>tipoDeAdmin</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>not null, check (tipoDeAdmin in ('Administrador global','Administrador de productos','Administrador de pedidos','Administrador de flota'))</t>
+  </si>
+  <si>
+    <t>primary key, idCliente --&gt; Personas</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>carga</t>
+  </si>
+  <si>
+    <t>numeric(10,2)</t>
+  </si>
+  <si>
+    <t>not null, not null, check(disponible in ('Disponible','No disponible'))</t>
+  </si>
+  <si>
+    <t>idCliente_Granjas (idUsuarioCliente)</t>
+  </si>
+  <si>
     <t>idPesticida</t>
   </si>
   <si>
-    <t>Fertilizantes</t>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>numeric(2)</t>
+  </si>
+  <si>
+    <t>impacto</t>
+  </si>
+  <si>
+    <t>not null  check(impacto in ('Alto','Medio','Bajo'))</t>
   </si>
   <si>
     <t>idFertilizante</t>
   </si>
   <si>
-    <t>Depositos</t>
-  </si>
-  <si>
-    <t>idDeposito</t>
-  </si>
-  <si>
-    <t>ubicacion</t>
-  </si>
-  <si>
-    <t>Productos</t>
-  </si>
-  <si>
-    <t>idProducto</t>
-  </si>
-  <si>
-    <t>nomnbre</t>
-  </si>
-  <si>
-    <t>Pedidos</t>
-  </si>
-  <si>
-    <t>idPedido</t>
-  </si>
-  <si>
-    <t>idCamion --&gt; Camiones, idCamionero --&gt; Camioneros, idCliente --&gt; Clientes</t>
-  </si>
-  <si>
-    <t>Producen</t>
-  </si>
-  <si>
-    <t>idGranja, idProducto, fchProduccion</t>
-  </si>
-  <si>
-    <t>idGranja --&gt; Granjas, idProducto --&gt; Productos, idDeposito --&gt; Depositos</t>
-  </si>
-  <si>
-    <t>Pedidos_Producen</t>
-  </si>
-  <si>
-    <t>idPedido, idGranja, idProducto, fchProduccion</t>
-  </si>
-  <si>
-    <t>idPedido --&gt; Pedidos, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
-  </si>
-  <si>
-    <t>Producen_Pesti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idPesticida, idGranja, idProducto, fchProduccion </t>
-  </si>
-  <si>
-    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Producen, idProducto --&gt; Producen,  fchProduccion --&gt; Producen</t>
-  </si>
-  <si>
-    <t>Producen_Ferti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idFertilizante, idGranja, idProducto, fchProduccion </t>
-  </si>
-  <si>
-    <t>idFertilizante--&gt; Fertilizantes, idGranja --&gt; Producen, idProducto --&gt; Producen,  fchProduccion --&gt; Producen</t>
-  </si>
-  <si>
-    <t>Tabla:</t>
-  </si>
-  <si>
-    <t>Clave primaria:</t>
-  </si>
-  <si>
-    <t>Claves alterna:</t>
-  </si>
-  <si>
-    <t>Claves foráneas</t>
-  </si>
-  <si>
-    <t>Campos</t>
-  </si>
-  <si>
-    <t>Tipos de datos</t>
-  </si>
-  <si>
-    <t>Restricciones</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>idUsuario</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>apellido</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-  </si>
-  <si>
-    <t>unique, not null</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>varchar(9)</t>
-  </si>
-  <si>
-    <t>fchNacimiento</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>fchNacimiento &lt; Today,not null</t>
-  </si>
-  <si>
-    <t>Restricciones de tabla:</t>
-  </si>
-  <si>
-    <t>Índices:</t>
-  </si>
-  <si>
-    <t>primary key, idCamionero --&gt; Personas</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>disponible</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>not null, check(disponible in ('Disponible','No disponible'))</t>
-  </si>
-  <si>
-    <t>fchManejo</t>
-  </si>
-  <si>
-    <t>fchManejo &gt; Today, not null</t>
-  </si>
-  <si>
-    <t>primary key, idAdmin --&gt; Personas</t>
-  </si>
-  <si>
-    <t>not null, unique</t>
-  </si>
-  <si>
-    <t>contrasena</t>
-  </si>
-  <si>
-    <t>tipoDeAdmin</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>not null, check (tipoDeAdmin in ('Administrador global','Administrador de productos','Administrador de pedidos','Administrador de flota'))</t>
-  </si>
-  <si>
-    <t>primary key, idCliente --&gt; Personas</t>
-  </si>
-  <si>
-    <t>contraseña</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>carga</t>
-  </si>
-  <si>
-    <t>numeric(10,2)</t>
-  </si>
-  <si>
-    <t>not null, not null, check(disponible in ('Disponible','No disponible'))</t>
-  </si>
-  <si>
-    <t>idCliente_Granjas (idUsuarioCliente)</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>toxicidad</t>
-  </si>
-  <si>
-    <t>resistencia</t>
-  </si>
-  <si>
-    <t>impacto</t>
-  </si>
-  <si>
-    <t>origen</t>
-  </si>
-  <si>
-    <t>compQuimica</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>numeric(2)</t>
+    <t>idFerti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not null  check(impacto in ('Alto','Medio','Bajo')) </t>
   </si>
   <si>
     <t>ubicación</t>
@@ -392,7 +401,10 @@
     <t>tipoVenta</t>
   </si>
   <si>
-    <t>estado</t>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
   <si>
     <t>fechaEsperado</t>
@@ -434,18 +446,9 @@
     <t>idCamionero_Pedidos (idCamionero)</t>
   </si>
   <si>
-    <t>Produce</t>
-  </si>
-  <si>
     <t>fchProduccion</t>
   </si>
   <si>
-    <t>idGranja --&gt; Granjas</t>
-  </si>
-  <si>
-    <t>idProducto --&gt; Productos</t>
-  </si>
-  <si>
     <t>fchProduccion&lt;= a la del dia, not null</t>
   </si>
   <si>
@@ -461,12 +464,21 @@
     <t>precio</t>
   </si>
   <si>
-    <t>idDeposito --&gt; Depositos, not null</t>
+    <t xml:space="preserve"> not null</t>
   </si>
   <si>
     <t>primary key (idGranja, idProducto, fchProduccion)</t>
   </si>
   <si>
+    <t>foreign key (idGranja) references Granjas(idGranja)</t>
+  </si>
+  <si>
+    <t>foreign key (idProducto) references Productos(idProducto)</t>
+  </si>
+  <si>
+    <t>foreign key (idDeposito) references Depositos(idDeposito)</t>
+  </si>
+  <si>
     <t>idProducto_Producen (idProducto)</t>
   </si>
   <si>
@@ -476,22 +488,22 @@
     <t>fchProduccion_Producen(fchProduccion)</t>
   </si>
   <si>
-    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
+    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
   </si>
   <si>
     <t>idPesticida--&gt; Pesticidas</t>
   </si>
   <si>
-    <t>idGranja --&gt; Producen</t>
-  </si>
-  <si>
-    <t>idProducto--&gt; Producen</t>
+    <t>idGranja --&gt; Lote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idProducto--&gt; Lote </t>
   </si>
   <si>
     <t xml:space="preserve">fchProduccion </t>
   </si>
   <si>
-    <t>fchProduccion --&gt; Producen</t>
+    <t>fchProduccion --&gt; Lote</t>
   </si>
   <si>
     <t>cantidad</t>
@@ -509,13 +521,13 @@
     <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
   </si>
   <si>
-    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Producen, idProducto --&gt; Producen, fchProduccion --&gt; Producen</t>
+    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
   </si>
   <si>
     <t>idFertilizante--&gt; Fertilizantes</t>
   </si>
   <si>
-    <t>fchProduccion --&gt;Producen</t>
+    <t>idProducto--&gt; Lote</t>
   </si>
   <si>
     <t>primary key (idFertilizante, idGranja, idProducto)</t>
@@ -527,16 +539,16 @@
     <t>idProducto_Producen_Ferti(idProducto)</t>
   </si>
   <si>
-    <t>Producen_Pedidos</t>
-  </si>
-  <si>
     <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
   </si>
   <si>
     <t>idPedido --&gt; Pedidos</t>
   </si>
   <si>
-    <t>idProducto --&gt; Producen</t>
+    <t>idProducto --&gt; Lote</t>
+  </si>
+  <si>
+    <t>fchProduccion --&gt;Lote</t>
   </si>
   <si>
     <t>primary key (idPedido, idGranja, idProducto, fchProduccion )</t>
@@ -602,15 +614,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1757,11 +1775,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1967,6 +2024,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2283,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD5525-7AA9-4C18-88C7-622EA76AA07E}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2548,7 +2611,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -2589,10 +2652,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>61</v>
@@ -2601,22 +2664,22 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2625,10 +2688,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
@@ -2678,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA27CEC0-1F99-4A0E-9C6E-B93893993F18}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2760,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -2769,10 +2832,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2781,7 +2844,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -2792,9 +2855,15 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5">
@@ -2911,7 +2980,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>76</v>
@@ -2923,10 +2992,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2935,10 +3004,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2947,20 +3016,20 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>61</v>
@@ -2969,10 +3038,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>61</v>
@@ -2987,7 +3056,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2999,7 +3068,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -3031,7 +3100,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3039,7 +3108,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3061,7 +3130,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3069,7 +3138,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3077,7 +3146,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3099,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC034D-68F2-499A-88B5-CB927008B55C}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3119,7 +3188,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
@@ -3139,7 +3208,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -3175,9 +3244,7 @@
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
@@ -3187,31 +3254,29 @@
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3220,10 +3285,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
@@ -3238,7 +3303,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3276,35 +3341,39 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="15" t="s">
-        <v>72</v>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="2" t="s">
-        <v>138</v>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3312,7 +3381,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3320,23 +3389,31 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3348,7 +3425,7 @@
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3392,7 +3469,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87"/>
@@ -3413,13 +3490,13 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="48" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3431,7 +3508,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3443,28 +3520,28 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="49" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>61</v>
@@ -3481,7 +3558,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="103" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C14" s="104"/>
       <c r="D14" s="104"/>
@@ -3503,7 +3580,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="100" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
@@ -3511,7 +3588,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="97" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
@@ -3519,7 +3596,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="94" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C19" s="95"/>
       <c r="D19" s="95"/>
@@ -3548,7 +3625,7 @@
   <dimension ref="B4:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3592,7 +3669,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87"/>
@@ -3613,13 +3690,13 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="48" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3631,7 +3708,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E10" s="43"/>
     </row>
@@ -3643,28 +3720,28 @@
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="49" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>61</v>
@@ -3681,7 +3758,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3703,7 +3780,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3711,7 +3788,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3739,7 +3816,7 @@
   <dimension ref="B3:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3755,7 +3832,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="84"/>
@@ -3765,7 +3842,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="93"/>
@@ -3810,7 +3887,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3822,7 +3899,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3834,19 +3911,19 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="49" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -3860,7 +3937,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="103" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C13" s="104"/>
       <c r="D13" s="104"/>
@@ -3882,7 +3959,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="100" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
@@ -3890,7 +3967,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="97" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="98"/>
@@ -3898,7 +3975,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="94" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
@@ -4261,10 +4338,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7B50E-5E05-436D-A3F2-B7A7E9168709}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4367,21 +4444,27 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="113"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5">
@@ -4411,6 +4494,60 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4495,7 +4632,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4513,7 +4650,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
@@ -4525,7 +4662,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>64</v>
@@ -4654,10 +4791,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>61</v>
@@ -4666,10 +4803,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -4678,10 +4815,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -4693,10 +4830,10 @@
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -4744,7 +4881,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H15" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4827,7 +4964,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -4839,7 +4976,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -4880,7 +5017,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4906,14 +5043,15 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="5" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
@@ -4932,7 +5070,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
@@ -4986,7 +5124,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -4995,10 +5133,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -5007,10 +5145,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -5019,26 +5157,20 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1">
@@ -5085,15 +5217,15 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
@@ -5112,7 +5244,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
@@ -5151,7 +5283,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -5175,7 +5307,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
@@ -5187,10 +5319,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -5202,23 +5334,17 @@
         <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1">

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F3F790-A538-4116-B563-3B04417B1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BEBDB5-3117-4582-9FA8-B956337036B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="15" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="166">
   <si>
     <t>Tablas</t>
   </si>
@@ -338,7 +338,7 @@
     <t>numeric(10,2)</t>
   </si>
   <si>
-    <t>not null, not null, check(disponible in ('Disponible','No disponible'))</t>
+    <t>varchar(50)</t>
   </si>
   <si>
     <t>idCliente_Granjas (idUsuarioCliente)</t>
@@ -380,9 +380,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
     <t>not null, uniue</t>
   </si>
   <si>
@@ -404,7 +401,7 @@
     <t>imagen</t>
   </si>
   <si>
-    <t>varchar(100)</t>
+    <t>varchar(MAX)</t>
   </si>
   <si>
     <t>fechaEsperado</t>
@@ -455,7 +452,7 @@
     <t>por defecto la del dia</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>cantidad</t>
   </si>
   <si>
     <t>numeric(10,0)</t>
@@ -494,55 +491,46 @@
     <t>idPesticida--&gt; Pesticidas</t>
   </si>
   <si>
+    <t xml:space="preserve">fchProduccion </t>
+  </si>
+  <si>
+    <t>primary key (idPesticida, idGranja, idProducto, fchProduccion )</t>
+  </si>
+  <si>
+    <t>foreign key(idGranja, idProducto, fchProduccion) references Lotes(idGranja, idProducto, fchProduccion)</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Pesti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Pesti (idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
+  </si>
+  <si>
+    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>idFertilizante--&gt; Fertilizantes</t>
+  </si>
+  <si>
+    <t>primary key (idFertilizante, idGranja, idProducto)</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Ferti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Ferti(idProducto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos</t>
+  </si>
+  <si>
     <t>idGranja --&gt; Lote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idProducto--&gt; Lote </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fchProduccion </t>
-  </si>
-  <si>
-    <t>fchProduccion --&gt; Lote</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>primary key (idPesticida, idGranja, idProducto, fchProduccion )</t>
-  </si>
-  <si>
-    <t>idGranja_Producen_Pesti (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen_Pesti (idProducto)</t>
-  </si>
-  <si>
-    <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
-  </si>
-  <si>
-    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
-  </si>
-  <si>
-    <t>idFertilizante--&gt; Fertilizantes</t>
-  </si>
-  <si>
-    <t>idProducto--&gt; Lote</t>
-  </si>
-  <si>
-    <t>primary key (idFertilizante, idGranja, idProducto)</t>
-  </si>
-  <si>
-    <t>idGranja_Producen_Ferti (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen_Ferti(idProducto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
-  </si>
-  <si>
-    <t>idPedido --&gt; Pedidos</t>
   </si>
   <si>
     <t>idProducto --&gt; Lote</t>
@@ -1818,7 +1806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1925,6 +1913,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2003,9 +1996,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2024,12 +2014,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2667,19 +2654,19 @@
         <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2688,10 +2675,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
@@ -2742,7 +2729,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2844,7 +2831,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>76</v>
@@ -2856,10 +2843,10 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1">
       <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>81</v>
@@ -2948,10 +2935,10 @@
       <c r="B6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5">
@@ -2992,10 +2979,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -3004,10 +2991,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3016,7 +3003,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>86</v>
@@ -3026,7 +3013,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>94</v>
@@ -3038,10 +3025,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>61</v>
@@ -3056,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3068,7 +3055,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -3100,7 +3087,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3108,7 +3095,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3130,7 +3117,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3138,7 +3125,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3146,7 +3133,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3171,7 +3158,7 @@
   <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3208,7 +3195,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -3259,24 +3246,24 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3285,7 +3272,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
@@ -3303,7 +3290,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3341,7 +3328,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3349,7 +3336,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3357,7 +3344,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3365,7 +3352,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3381,7 +3368,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3389,7 +3376,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3397,7 +3384,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3424,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A133C493-A52A-44CB-8ED4-39594245B901}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3440,39 +3427,39 @@
       <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="C6" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
@@ -3496,7 +3483,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3508,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3520,28 +3507,28 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="49" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>61</v>
@@ -3549,58 +3536,60 @@
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="B14" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="106"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
+      <c r="B15" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="B17" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+      <c r="B19" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3625,7 +3614,7 @@
   <dimension ref="B4:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3640,39 +3629,39 @@
       <c r="B4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="C7" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="46" t="s">
@@ -3696,7 +3685,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3708,7 +3697,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E10" s="43"/>
     </row>
@@ -3720,28 +3709,28 @@
         <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="49" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>61</v>
@@ -3758,14 +3747,16 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="43"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="48"/>
+      <c r="B16" s="48" t="s">
+        <v>148</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="43"/>
@@ -3780,7 +3771,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3788,7 +3779,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3815,7 +3806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875A4EF-EF14-43B7-BA29-7E9B2D9A29F9}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3831,39 +3822,39 @@
       <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="C4" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
@@ -3887,7 +3878,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3899,7 +3890,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3911,75 +3902,75 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4190,7 +4181,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4338,10 +4329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7B50E-5E05-436D-A3F2-B7A7E9168709}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4444,19 +4435,19 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="84" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -4495,59 +4486,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
+    <row r="25" spans="5:5">
+      <c r="E25" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4716,7 +4656,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4833,7 +4773,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -4881,7 +4821,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H14:H15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4976,7 +4916,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -5043,7 +4983,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5124,7 +5064,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
@@ -5136,7 +5076,7 @@
         <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BEBDB5-3117-4582-9FA8-B956337036B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B49A94-D012-47E4-9CEE-664F067E433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="15" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="8" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
   <si>
     <t>Tablas</t>
   </si>
@@ -353,7 +353,7 @@
     <t>pH</t>
   </si>
   <si>
-    <t>numeric(2)</t>
+    <t>numeric(4,2)</t>
   </si>
   <si>
     <t>impacto</t>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>cantidad</t>
-  </si>
-  <si>
-    <t>numeric(10,0)</t>
   </si>
   <si>
     <t>precio</t>
@@ -2561,7 +2558,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3158,7 +3155,7 @@
   <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3263,7 +3260,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3272,7 +3269,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
@@ -3290,7 +3287,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3328,7 +3325,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3336,7 +3333,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3344,7 +3341,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3352,7 +3349,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3368,7 +3365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3376,7 +3373,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3384,7 +3381,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3456,7 +3453,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="92"/>
@@ -3483,7 +3480,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
@@ -3553,7 +3550,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="118"/>
       <c r="D15" s="118"/>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -3658,7 +3655,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="92"/>
@@ -3685,7 +3682,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3715,7 +3712,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>69</v>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3806,7 +3803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875A4EF-EF14-43B7-BA29-7E9B2D9A29F9}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3833,7 +3830,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="97"/>
       <c r="E4" s="98"/>
@@ -3878,7 +3875,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3890,7 +3887,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3902,19 +3899,19 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
@@ -3958,7 +3955,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
@@ -3974,17 +3971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4983,7 +4980,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5156,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A8CA9B-C1E5-4275-961B-B126EB91DBF9}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B49A94-D012-47E4-9CEE-664F067E433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4E10BE-BC85-483B-BA25-4D9ACC04919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="8" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -3971,17 +3971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5154,14 +5154,14 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4E10BE-BC85-483B-BA25-4D9ACC04919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6276A344-2C52-4819-AE3F-ACF958A484D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="8" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="166">
   <si>
     <t>Tablas</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>varchar(MAX)</t>
+  </si>
+  <si>
+    <t>CantTotal</t>
   </si>
   <si>
     <t>fechaEsperado</t>
@@ -613,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1799,11 +1802,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2011,6 +2040,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2723,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA27CEC0-1F99-4A0E-9C6E-B93893993F18}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2739,45 +2773,45 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2786,12 +2820,12 @@
       <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2800,10 +2834,10 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2812,10 +2846,10 @@
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="48" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2824,10 +2858,10 @@
       <c r="D10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="48" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2836,47 +2870,57 @@
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="121"/>
+      <c r="E13" s="117"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="119"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="B15" s="48"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2976,10 +3020,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2988,10 +3032,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -3000,7 +3044,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>86</v>
@@ -3010,7 +3054,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>94</v>
@@ -3022,7 +3066,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>113</v>
@@ -3040,7 +3084,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3052,7 +3096,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -3084,7 +3128,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3092,7 +3136,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3114,7 +3158,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3122,7 +3166,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3130,7 +3174,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3192,7 +3236,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
@@ -3243,21 +3287,21 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -3269,7 +3313,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
@@ -3287,7 +3331,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3325,7 +3369,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3333,7 +3377,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3341,7 +3385,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3349,7 +3393,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3365,7 +3409,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3373,7 +3417,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3381,7 +3425,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3453,7 +3497,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="92"/>
@@ -3480,7 +3524,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3510,19 +3554,19 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>86</v>
@@ -3542,19 +3586,19 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
       <c r="E14" s="110"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
+      <c r="B15" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="111" t="s">
@@ -3566,7 +3610,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
@@ -3574,7 +3618,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
@@ -3582,7 +3626,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="100"/>
@@ -3655,7 +3699,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="92"/>
@@ -3682,7 +3726,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3712,19 +3756,19 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>86</v>
@@ -3744,7 +3788,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3752,7 +3796,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3768,7 +3812,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3776,7 +3820,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3830,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" s="97"/>
       <c r="E4" s="98"/>
@@ -3875,7 +3919,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3887,7 +3931,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3899,19 +3943,19 @@
         <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -3925,7 +3969,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="108" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -3947,7 +3991,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
@@ -3955,7 +3999,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
@@ -3963,7 +4007,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="99" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
@@ -5153,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A8CA9B-C1E5-4275-961B-B126EB91DBF9}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Documentacion/Cuadro de claves y tablas.xlsx
+++ b/Documentacion/Cuadro de claves y tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrgat\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6276A344-2C52-4819-AE3F-ACF958A484D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A2EA2E-6301-4A36-8502-70B5A946F7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="19" xr2:uid="{0C59B808-58C6-4361-94C1-F9D3DE8136D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro de claves" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,14 @@
     <sheet name="Depositos" sheetId="16" r:id="rId10"/>
     <sheet name="Productos" sheetId="9" r:id="rId11"/>
     <sheet name="Pedidos" sheetId="12" r:id="rId12"/>
-    <sheet name="Lotes" sheetId="14" r:id="rId13"/>
-    <sheet name="Lotes_Pestis" sheetId="17" r:id="rId14"/>
-    <sheet name="Lotes_Fertis" sheetId="18" r:id="rId15"/>
-    <sheet name="Lotes_Pedidos" sheetId="13" r:id="rId16"/>
+    <sheet name="Pedidos_Prod " sheetId="19" r:id="rId13"/>
+    <sheet name="Lotes" sheetId="14" r:id="rId14"/>
+    <sheet name="Lotes_Pestis" sheetId="17" r:id="rId15"/>
+    <sheet name="Lotes_Fertis" sheetId="18" r:id="rId16"/>
+    <sheet name="Lotes_Pedidos" sheetId="13" r:id="rId17"/>
+    <sheet name="Viajes" sheetId="20" r:id="rId18"/>
+    <sheet name="Viajes_Lots_Ped" sheetId="21" r:id="rId19"/>
+    <sheet name="Auditoria" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="203">
   <si>
     <t>Tablas</t>
   </si>
@@ -152,16 +156,19 @@
     <t>idProducto</t>
   </si>
   <si>
-    <t>nomnbre</t>
-  </si>
-  <si>
     <t>Pedidos</t>
   </si>
   <si>
     <t>idPedido</t>
   </si>
   <si>
-    <t>idCamion --&gt; Camiones, idCamionero --&gt; Camioneros, idCliente --&gt; Clientes</t>
+    <t xml:space="preserve">Pedidos_Prod </t>
+  </si>
+  <si>
+    <t>idPedido, idProducto</t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos, idProducto --&gt;  Producto</t>
   </si>
   <si>
     <t>Lotes</t>
@@ -200,6 +207,33 @@
     <t>idFertilizante--&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
   </si>
   <si>
+    <t>Viajes</t>
+  </si>
+  <si>
+    <t>idViaje</t>
+  </si>
+  <si>
+    <t>idCamionero --&gt; Camioneros, idCamion --&gt; Camiones</t>
+  </si>
+  <si>
+    <t>Viajes_Lots_Ped</t>
+  </si>
+  <si>
+    <t>idViaje, idGranja, idProducto, fchProduccion, idPedido</t>
+  </si>
+  <si>
+    <t>idGranja --&gt; Lotes_Pedidos, idProducto --&gt;  Lotes_Pedidos,  fchProduccion --&gt;  Lotes_Pedidos, idPedido --&gt;  Lotes_Pedidos,  idViaje --&gt; Viajes</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>idAuditoria</t>
+  </si>
+  <si>
+    <t>idAdmin --&gt; Admins</t>
+  </si>
+  <si>
     <t>Tabla:</t>
   </si>
   <si>
@@ -314,7 +348,7 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>not null, check (tipoDeAdmin in ('Administrador global','Administrador de productos','Administrador de pedidos','Administrador de flota'))</t>
+    <t>not null, check (tipoDeAdmin in ('Administrador global','Administrador de productos','Administrador de pedidos'))</t>
   </si>
   <si>
     <t>primary key, idCliente --&gt; Personas</t>
@@ -398,6 +432,15 @@
     <t>tipoVenta</t>
   </si>
   <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>numeric(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not null, </t>
+  </si>
+  <si>
     <t>imagen</t>
   </si>
   <si>
@@ -407,16 +450,28 @@
     <t>CantTotal</t>
   </si>
   <si>
-    <t>fechaEsperado</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>fechaEntregado</t>
-  </si>
-  <si>
-    <t>retraso</t>
+    <t>CantRes</t>
+  </si>
+  <si>
+    <t>not null, check(estado in ('No Confirmado','Confirmado', 'Finalizado'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fchPedido </t>
+  </si>
+  <si>
+    <t>fchPedido = GetDate()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fechaEntre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fechaEntre  &gt;= GetDate() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">viaje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check(viaje in('Sin asignar', 'Asignado')) </t>
   </si>
   <si>
     <t>costo</t>
@@ -425,137 +480,197 @@
     <t>informacionEntrega</t>
   </si>
   <si>
+    <t>idCliente_Pedidos (idCliente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idPedido --&gt; Pedidos, idProducto --&gt;  Producto</t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos, not null</t>
+  </si>
+  <si>
+    <t>idProducto --&gt; Producto, not null</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>primary key (idPedido, idProducto)</t>
+  </si>
+  <si>
+    <t>idProducto_Pedidos_Cli(idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion</t>
+  </si>
+  <si>
+    <t>idGranja --&gt; Granjas</t>
+  </si>
+  <si>
+    <t>idProducto --&gt; Productos</t>
+  </si>
+  <si>
+    <t>fchProduccion&lt;= a la del dia, not null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not null</t>
+  </si>
+  <si>
+    <t>fchCaducidad</t>
+  </si>
+  <si>
+    <t>idDeposito --&gt; Depositos</t>
+  </si>
+  <si>
+    <t>primary key (idGranja, idProducto, fchProduccion)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen (idProducto)</t>
+  </si>
+  <si>
+    <t>idDeposito_Producen (idDeposito)</t>
+  </si>
+  <si>
+    <t>fchProduccion_Producen(fchProduccion)</t>
+  </si>
+  <si>
+    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>idPesticida--&gt; Pesticidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fchProduccion </t>
+  </si>
+  <si>
+    <t>primary key (idPesticida, idGranja, idProducto, fchProduccion )</t>
+  </si>
+  <si>
+    <t>foreign key(idGranja, idProducto, fchProduccion) references Lotes(idGranja, idProducto, fchProduccion)</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Pesti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Pesti (idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
+  </si>
+  <si>
+    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
+  </si>
+  <si>
+    <t>idFertilizante--&gt; Fertilizantes</t>
+  </si>
+  <si>
+    <t>primary key (idFertilizante, idGranja, idProducto)</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Ferti (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Ferti(idProducto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
+  </si>
+  <si>
+    <t>idPedido --&gt; Pedidos</t>
+  </si>
+  <si>
+    <t>cantidadViaje</t>
+  </si>
+  <si>
+    <t>primary key (idPedido, idGranja, idProducto, fchProduccion )</t>
+  </si>
+  <si>
+    <t>foreign key  (idGranja, idProducto, fchProduccion) ---&gt; Lote</t>
+  </si>
+  <si>
+    <t>idGranja_Producen_Pedidos (idGranja)</t>
+  </si>
+  <si>
+    <t>idProducto_Producen_Pedidos(idProducto)</t>
+  </si>
+  <si>
+    <t>fchProduccion _Producen_Pedidos(fchProduccion)</t>
+  </si>
+  <si>
+    <t>idCamion --&gt; Camiones, idCamionero --&gt; Camioneros</t>
+  </si>
+  <si>
+    <t>numeric(8,0)</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>not null check(fecha &gt;= CONVERT(date,getdate())</t>
+  </si>
+  <si>
     <t>idCamion --&gt; Camiones</t>
   </si>
   <si>
     <t>idCamionero --&gt; Camioneros</t>
   </si>
   <si>
-    <t>fechaEsperado &gt;= a la del dia</t>
-  </si>
-  <si>
-    <t>fechaEntregado &gt;= a la de fechaEsperado</t>
-  </si>
-  <si>
-    <t>idCliente_Pedidos (idCliente)</t>
-  </si>
-  <si>
-    <t>idCamion_Pedidos (idCamion)</t>
-  </si>
-  <si>
-    <t>idCamionero_Pedidos (idCamionero)</t>
-  </si>
-  <si>
-    <t>fchProduccion</t>
-  </si>
-  <si>
-    <t>fchProduccion&lt;= a la del dia, not null</t>
-  </si>
-  <si>
-    <t>por defecto la del dia</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not null</t>
-  </si>
-  <si>
-    <t>primary key (idGranja, idProducto, fchProduccion)</t>
-  </si>
-  <si>
-    <t>foreign key (idGranja) references Granjas(idGranja)</t>
-  </si>
-  <si>
-    <t>foreign key (idProducto) references Productos(idProducto)</t>
-  </si>
-  <si>
-    <t>foreign key (idDeposito) references Depositos(idDeposito)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen (idProducto)</t>
-  </si>
-  <si>
-    <t>idDeposito_Producen (idDeposito)</t>
-  </si>
-  <si>
-    <t>fchProduccion_Producen(fchProduccion)</t>
-  </si>
-  <si>
-    <t>idPesticida --&gt; Pesticidas, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
-  </si>
-  <si>
-    <t>idPesticida--&gt; Pesticidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fchProduccion </t>
-  </si>
-  <si>
-    <t>primary key (idPesticida, idGranja, idProducto, fchProduccion )</t>
-  </si>
-  <si>
-    <t>foreign key(idGranja, idProducto, fchProduccion) references Lotes(idGranja, idProducto, fchProduccion)</t>
-  </si>
-  <si>
-    <t>idGranja_Producen_Pesti (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen_Pesti (idProducto)</t>
-  </si>
-  <si>
-    <t>fchProduccion _Producen_Pesti(fchProduccion )</t>
-  </si>
-  <si>
-    <t>idFertilizante --&gt; Fertilizantes, idGranja --&gt; Lotes, idProducto --&gt; Lotes, fchProduccion --&gt; Lotes</t>
-  </si>
-  <si>
-    <t>idFertilizante--&gt; Fertilizantes</t>
-  </si>
-  <si>
-    <t>primary key (idFertilizante, idGranja, idProducto)</t>
-  </si>
-  <si>
-    <t>idGranja_Producen_Ferti (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen_Ferti(idProducto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idPedido, idGranja, idProducto, fchProduccion </t>
-  </si>
-  <si>
-    <t>idPedido --&gt; Pedidos</t>
-  </si>
-  <si>
-    <t>idGranja --&gt; Lote</t>
-  </si>
-  <si>
-    <t>idProducto --&gt; Lote</t>
-  </si>
-  <si>
-    <t>fchProduccion --&gt;Lote</t>
-  </si>
-  <si>
-    <t>primary key (idPedido, idGranja, idProducto, fchProduccion )</t>
-  </si>
-  <si>
-    <t>idGranja_Producen_Pedidos (idGranja)</t>
-  </si>
-  <si>
-    <t>idProducto_Producen_Pedidos(idProducto)</t>
-  </si>
-  <si>
-    <t>fchProduccion _Producen_Pedidos(fchProduccion)</t>
+    <t>CHECK (estado IN ('Pendiente', 'Confirmado', 'En viaje', 'Finalizado'))</t>
+  </si>
+  <si>
+    <t>idCamion_Viajes (idCamion)</t>
+  </si>
+  <si>
+    <t>idCamionero_Viajes(idCamionero)</t>
+  </si>
+  <si>
+    <t>idViaje --&gt; Viajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idProducto </t>
+  </si>
+  <si>
+    <t>foreign key (idGranja, idProducto, fchProduccion, idPedido) references Lotes_Pedidos (idGranja, idProducto, fchProduccion, idPedido)</t>
+  </si>
+  <si>
+    <t>primary key (idViaje, idGranja, idProducto, fchProduccion, idPedido)</t>
+  </si>
+  <si>
+    <t>idProducto_Viajes_Lots_Ped(idProducto)</t>
+  </si>
+  <si>
+    <t>idGranja_Viajes_Lots_Ped (idGranja)</t>
+  </si>
+  <si>
+    <t>fchProduccion_Viajes_Lots_Ped(fchProduccion)</t>
+  </si>
+  <si>
+    <t>idPedido_Viajes_Lots_Ped(idPedido)</t>
+  </si>
+  <si>
+    <t>primary key, identitiy(1,1)</t>
+  </si>
+  <si>
+    <t>tabla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo </t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check(impacto in ('Alta','Modificar','Baja')) </t>
+  </si>
+  <si>
+    <t>idAdmin_Auditoria(idAdmin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +716,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -616,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1828,11 +1963,272 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1939,78 +2335,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2031,6 +2370,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2040,11 +2442,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2362,18 +2820,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD5525-7AA9-4C18-88C7-622EA76AA07E}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="114.140625" customWidth="1"/>
+    <col min="5" max="5" width="142.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2391,194 +2849,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="52" t="s">
+    <row r="4" spans="2:5" ht="17.25">
+      <c r="B4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="52" t="s">
+      <c r="E4" s="141"/>
+    </row>
+    <row r="5" spans="2:5" ht="17.25">
+      <c r="B5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="52" t="s">
+    <row r="6" spans="2:5" ht="17.25">
+      <c r="B6" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="141" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:5" ht="17.25">
+      <c r="B7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="141" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:5" ht="17.25">
+      <c r="B8" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="52" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.25">
+      <c r="B9" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="141" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:5" ht="17.25">
+      <c r="B10" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="52" t="s">
+      <c r="E10" s="141"/>
+    </row>
+    <row r="11" spans="2:5" ht="17.25">
+      <c r="B11" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="52" t="s">
+      <c r="E11" s="141"/>
+    </row>
+    <row r="12" spans="2:5" ht="17.25">
+      <c r="B12" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="52" t="s">
+      <c r="E12" s="141"/>
+    </row>
+    <row r="13" spans="2:5" ht="17.25">
+      <c r="B13" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="141"/>
+    </row>
+    <row r="14" spans="2:5" ht="17.25">
+      <c r="B14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="140"/>
+      <c r="E14" s="141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25">
+      <c r="B15" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="53" t="s">
+      <c r="C15" s="140" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="52" t="s">
+      <c r="D15" s="140"/>
+      <c r="E15" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="35" t="s">
+    </row>
+    <row r="16" spans="2:5" ht="17.25">
+      <c r="B16" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="53" t="s">
+      <c r="C16" s="140" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="52" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="35" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="17.25">
+      <c r="B17" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="53" t="s">
+      <c r="C17" s="140" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="140"/>
+      <c r="E17" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="35" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="17.25">
+      <c r="B18" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="53" t="s">
+      <c r="C18" s="140" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="55" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="17.25">
+      <c r="B19" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="s">
+      <c r="C19" s="140" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="D19" s="33"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25">
+      <c r="B20" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17.25">
+      <c r="B21" s="142" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25">
+      <c r="B22" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2606,7 +3112,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>28</v>
@@ -2616,7 +3122,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>29</v>
@@ -2626,17 +3132,17 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2644,16 +3150,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2661,58 +3167,58 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2724,7 +3230,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2738,7 +3244,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2757,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA27CEC0-1F99-4A0E-9C6E-B93893993F18}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2774,7 +3280,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>31</v>
@@ -2784,7 +3290,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>32</v>
@@ -2794,7 +3300,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -2804,24 +3310,24 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="120"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="85"/>
       <c r="D6" s="66"/>
       <c r="E6" s="45"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2829,10 +3335,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -2841,86 +3347,108 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="48" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="48" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="82"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="117"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="119"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="48"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="43"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2929,44 +3457,44 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663F3F3B-3E80-4980-A6E6-BD5AB0EF95B4}">
-  <dimension ref="B2:E27"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2974,217 +3502,280 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1">
       <c r="B6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="92"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="124"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="123"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="H20" s="123"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2"/>
+      <c r="H21" s="123"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="15" t="s">
-        <v>72</v>
+      <c r="H22" s="123"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="H23" s="123"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="15"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="2" t="s">
-        <v>129</v>
-      </c>
+    <row r="25" spans="1:8">
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+    <row r="26" spans="1:8">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="123"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="123"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3195,11 +3786,201 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC034D-68F2-499A-88B5-CB927008B55C}">
-  <dimension ref="A2:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD139AA-99AB-4B39-AFF6-14B734D6754D}">
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15.75">
+      <c r="B3" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="51"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="51"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="49"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="102"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CC034D-68F2-499A-88B5-CB927008B55C}">
+  <dimension ref="A3:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3207,62 +3988,61 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1">
+    <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3270,9 +4050,11 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
@@ -3280,46 +4062,46 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -3328,17 +4110,23 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5">
@@ -3361,7 +4149,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3369,39 +4157,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3409,7 +4191,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3417,7 +4199,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3425,7 +4207,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3444,16 +4226,19 @@
       <c r="E28" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A133C493-A52A-44CB-8ED4-39594245B901}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3466,65 +4251,65 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3533,7 +4318,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -3545,7 +4330,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -3554,83 +4339,83 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="51" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="49" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
+      <c r="B13" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="B14" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
+      <c r="B15" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="B16" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
+      <c r="B17" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="102" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
       <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="B19" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3650,12 +4435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241BC919-EDA9-4F8D-A698-DE16FDC6FD6F}">
   <dimension ref="B4:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3668,65 +4453,65 @@
   <sheetData>
     <row r="4" spans="2:5" ht="15.75">
       <c r="B4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="48" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E9" s="43"/>
     </row>
@@ -3735,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -3747,7 +4532,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -3756,31 +4541,31 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="51" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="49" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="40" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -3788,7 +4573,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="48" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3796,7 +4581,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="48" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3804,7 +4589,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="42" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3812,7 +4597,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="51" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3820,7 +4605,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="52" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -3843,12 +4628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875A4EF-EF14-43B7-BA29-7E9B2D9A29F9}">
-  <dimension ref="B3:E18"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3856,70 +4641,70 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -3928,11 +4713,9 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
@@ -3940,92 +4723,659 @@
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="C11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="108" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
+      <c r="B13" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="B14" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="B15" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
+      <c r="B16" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
+      <c r="B17" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="99" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
       <c r="E18" s="101"/>
     </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531E2E08-2C69-46FC-B3D2-34EC25193D45}">
+  <dimension ref="C3:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" ht="15.75">
+      <c r="C3" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A794091-0539-46A0-BDA3-F3CA67D0FAB1}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75">
+      <c r="B2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="137"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="123"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="123"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="123"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4036,7 +5386,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4050,7 +5400,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>4</v>
@@ -4060,7 +5410,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>5</v>
@@ -4070,7 +5420,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -4080,7 +5430,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4088,27 +5438,27 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4117,58 +5467,58 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -4180,7 +5530,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -4200,7 +5550,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4213,6 +5563,180 @@
       <c r="E19" s="6"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56722196-AC70-460F-BE58-78B8BAF62736}">
+  <dimension ref="C4:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" ht="15.75">
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4222,7 +5746,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4235,7 +5759,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="15.75">
       <c r="B3" s="36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>7</v>
@@ -4245,7 +5769,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="40" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -4255,7 +5779,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4265,7 +5789,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="58" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -4275,16 +5799,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="59" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4292,10 +5816,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E8" s="43"/>
     </row>
@@ -4304,40 +5828,40 @@
         <v>9</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="67" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E10" s="45"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="72" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E11" s="64"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="68" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="70"/>
@@ -4351,7 +5875,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="42" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4373,21 +5897,21 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="121" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>11</v>
@@ -4395,140 +5919,140 @@
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="2:5" ht="15.75">
+      <c r="B4" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75">
+      <c r="B5" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="154" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2" t="s">
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75">
+      <c r="B7" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="159" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75">
+      <c r="B8" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="153"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75">
+      <c r="B9" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="153"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75">
+      <c r="B10" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="153"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75">
+      <c r="B11" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="163"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75">
+      <c r="B12" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="156"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75">
+      <c r="B13" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75">
+      <c r="B14" s="160"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75">
+      <c r="B15" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="80"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="81"/>
+      <c r="E25" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4540,7 +6064,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4553,7 +6077,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>15</v>
@@ -4563,7 +6087,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>16</v>
@@ -4573,7 +6097,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -4583,7 +6107,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>17</v>
@@ -4593,16 +6117,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4610,10 +6134,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4622,34 +6146,34 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -4661,7 +6185,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -4675,7 +6199,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4710,7 +6234,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>18</v>
@@ -4720,7 +6244,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>19</v>
@@ -4730,7 +6254,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4738,7 +6262,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4746,16 +6270,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4763,58 +6287,58 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -4826,7 +6350,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -4840,7 +6364,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4862,7 +6386,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4876,7 +6400,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>20</v>
@@ -4886,7 +6410,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>21</v>
@@ -4896,7 +6420,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -4906,7 +6430,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -4916,16 +6440,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4933,10 +6457,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4945,10 +6469,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -4957,7 +6481,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -4967,7 +6491,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -4976,7 +6500,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4990,7 +6514,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4998,7 +6522,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5024,7 +6548,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5038,7 +6562,7 @@
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>24</v>
@@ -5048,17 +6572,17 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -5068,7 +6592,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5076,16 +6600,16 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -5093,10 +6617,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -5105,46 +6629,46 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -5162,7 +6686,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -5176,7 +6700,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5198,7 +6722,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5206,13 +6730,13 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.5" thickBot="1">
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>26</v>
@@ -5222,17 +6746,17 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -5242,7 +6766,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1">
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5250,27 +6774,27 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -5279,46 +6803,46 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -5336,7 +6860,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -5350,7 +6874,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
